--- a/figures/dl/dl.xlsx
+++ b/figures/dl/dl.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>transport vehicle</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t xml:space="preserve">it will use electricity as a fuel and </t>
+  </si>
+  <si>
+    <t>&lt;insert prototype&gt;</t>
   </si>
 </sst>
 </file>
@@ -397,7 +400,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -426,7 +429,9 @@
         <v>3</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -472,7 +477,9 @@
         <v>7</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>

--- a/figures/dl/dl.xlsx
+++ b/figures/dl/dl.xlsx
@@ -51,16 +51,16 @@
     <t xml:space="preserve">                                  </t>
   </si>
   <si>
-    <t xml:space="preserve">it will reach speeds of  with its 808 </t>
-  </si>
-  <si>
-    <t>horsepower engine</t>
-  </si>
-  <si>
     <t xml:space="preserve">it will use electricity as a fuel and </t>
   </si>
   <si>
     <t>&lt;insert prototype&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it will reach speeds of 1000 KM/HOUR  </t>
+  </si>
+  <si>
+    <t>with its 808 horsepower engine</t>
   </si>
 </sst>
 </file>
@@ -400,7 +400,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="G4" sqref="G4:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -430,7 +430,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -450,12 +450,12 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:12">
@@ -465,12 +465,12 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
@@ -478,7 +478,7 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -512,7 +512,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -526,7 +526,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -540,7 +540,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -552,14 +552,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="10">
     <mergeCell ref="G9:J9"/>
     <mergeCell ref="C2:F4"/>
     <mergeCell ref="C5:F9"/>
     <mergeCell ref="A2:B4"/>
     <mergeCell ref="A5:B9"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="G3:J3"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="G5:J5"/>
     <mergeCell ref="A1:B1"/>
